--- a/files/climate.xlsx
+++ b/files/climate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
   <si>
     <t>Россия</t>
   </si>
@@ -140,18 +140,56 @@
   </si>
   <si>
     <t>Хафьель</t>
+  </si>
+  <si>
+    <t>Республика Коми</t>
+  </si>
+  <si>
+    <t>Самарская область</t>
+  </si>
+  <si>
+    <t>Каир</t>
+  </si>
+  <si>
+    <t>Александрия</t>
+  </si>
+  <si>
+    <t>Анкара</t>
+  </si>
+  <si>
+    <t>Стамбул</t>
+  </si>
+  <si>
+    <t>Аляска</t>
+  </si>
+  <si>
+    <t>Калифорния</t>
+  </si>
+  <si>
+    <t>Нигер</t>
+  </si>
+  <si>
+    <t>Маради</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,9 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -205,6 +246,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -253,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,7 +332,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,6 +862,116 @@
         <v>8</v>
       </c>
     </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
